--- a/target/test-classes/TestData.xlsx
+++ b/target/test-classes/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="47">
   <si>
     <t>UserName</t>
   </si>
@@ -126,6 +126,45 @@
   </si>
   <si>
     <t>disneyTest838bjr@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838knp@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838jam@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838xfs@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838son@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838cti@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838qly@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838owb@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838mrc@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838wui@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838mqk@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838bfk@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838whr@yopmail.com</t>
+  </si>
+  <si>
+    <t>disneyTest838rdh@yopmail.com</t>
   </si>
 </sst>
 </file>
@@ -711,7 +750,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
